--- a/P0025/09_FICHAS/N3-FD-General.xlsx
+++ b/P0025/09_FICHAS/N3-FD-General.xlsx
@@ -1,31 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28318"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\S3_Buckets\foa-prod-comp-fenomenologico-bucket\foa_puj_curada\P0025\09_FICHAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7193BB44-10F5-416B-8407-D085341FAAD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="77" documentId="13_ncr:1_{7193BB44-10F5-416B-8407-D085341FAAD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6A75AFB6-7CBD-4AAF-AF41-A5C5C06507B3}"/>
   <bookViews>
     <workbookView xWindow="390" yWindow="390" windowWidth="17280" windowHeight="6690" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="53">
   <si>
     <t>CODIGO DE PROYECTO</t>
   </si>
@@ -78,7 +89,7 @@
     <t>P0025</t>
   </si>
   <si>
-    <t>PR0001</t>
+    <t>NA</t>
   </si>
   <si>
     <t>R0001</t>
@@ -90,31 +101,31 @@
     <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0025/02_PRODUCTOS/Rural/Rural_Sucre_SI.shp</t>
   </si>
   <si>
-    <t>NA</t>
-  </si>
-  <si>
     <t>Archivo tipo shape file, geometría tipo polígono.  Contiene información del departamento de Sucre, los municipios: Guarandá, Majagual, San Benito de Abad.  La tabla de atributos contiene información de usuarios, fecha y las áreas del polígono</t>
   </si>
   <si>
+    <t>Capa cartográfica</t>
+  </si>
+  <si>
+    <t>shp</t>
+  </si>
+  <si>
+    <t>MEDIO SOCIOECONÓMICO</t>
+  </si>
+  <si>
+    <t>Polígono</t>
+  </si>
+  <si>
     <t>Vector</t>
   </si>
   <si>
-    <t>Capa cartográfica</t>
-  </si>
-  <si>
-    <t>MEDIO SOCIOECONÓMICO</t>
-  </si>
-  <si>
-    <t>Polígono</t>
-  </si>
-  <si>
     <t>DESCONOCIDO</t>
   </si>
   <si>
     <t>La carpeta original no contiene mucha información para entender el origen de los datos.  Aparentemente son parcelas con áreas</t>
   </si>
   <si>
-    <t>Sucre, Parcelas, Área, Guarandá, Majagual, San Benito de Abad</t>
+    <t>Sucre, parcelas, área, Guaranda, Majagual, San Benito Abad, rural</t>
   </si>
   <si>
     <t>R0002</t>
@@ -126,6 +137,9 @@
     <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0025/02_PRODUCTOS/Rural/Rural_Sucre.shp</t>
   </si>
   <si>
+    <t>Sucre, parcelas, área, Guarandá, Majagual, San Benito Abad</t>
+  </si>
+  <si>
     <t>R0003</t>
   </si>
   <si>
@@ -138,7 +152,10 @@
     <t>Archivo tipo shape file, geometría tipo polígono.  Contiene información del departamento de Córdoba, en particular del municipio de Ayapel.  La tabla de atributos contiene información de las áreas del polígono</t>
   </si>
   <si>
-    <t>Córdoba, Parcelas, Área, Ayapel</t>
+    <t>La carpeta original no contiene información suficiente para entender el origen de los datos.  Aparentemente son parcelas con áreas.</t>
+  </si>
+  <si>
+    <t>Córdoba, parcelas, área, Ayapel</t>
   </si>
   <si>
     <t>R0004</t>
@@ -150,23 +167,53 @@
     <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0025/02_PRODUCTOS/Rural/Rural_Bolivar.shp</t>
   </si>
   <si>
-    <t>Archivo tipo shape file, geometría tipo polígono.  Contiene información del departamento de Bolívar, en particular del municipio de San Jacinto del Cauca.   La tabla de atributos contiene información de las áreas del polígono</t>
-  </si>
-  <si>
-    <t>Bolívar, Parcelas, Área, San Jacinto del Cauca</t>
+    <t>Archivo tipo shapefile, geometría tipo polígono.  Contiene información del municipio de San Jacinto del Cauca en departamento de Bolívar específicamente de predios rurales. La tabla de atributos contiene información de las áreas del polígono</t>
+  </si>
+  <si>
+    <t>La carpeta original no contiene información para entender el origen de los datos.  Aparentemente son parcelas o predios rurales con estimaciones de áreas.</t>
+  </si>
+  <si>
+    <t>Bolívar, parcelas, predio, rural, áreas, San Jacinto del Cauca</t>
+  </si>
+  <si>
+    <t>R0005</t>
+  </si>
+  <si>
+    <t>Rural_Cordoba</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0025/02_PRODUCTOS/Rural/Rural_Cordoba.shp</t>
+  </si>
+  <si>
+    <t>Córdoba, parcelas, área, predios</t>
+  </si>
+  <si>
+    <t>R0006</t>
+  </si>
+  <si>
+    <t>Rural_Cordoba_SI</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0025/02_PRODUCTOS/Rural/Rural_Cordoba_SI.shp</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF242424"/>
+      <name val="Aptos Narrow"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -177,7 +224,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -200,13 +247,45 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -487,15 +566,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P5"/>
+  <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:P5"/>
+      <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="6.7109375" customWidth="1"/>
+    <col min="4" max="4" width="22.140625" customWidth="1"/>
+    <col min="8" max="8" width="33.140625" customWidth="1"/>
+    <col min="9" max="9" width="17.42578125" customWidth="1"/>
+    <col min="10" max="10" width="11" customWidth="1"/>
+    <col min="11" max="11" width="30.5703125" customWidth="1"/>
+    <col min="12" max="12" width="22.28515625" customWidth="1"/>
+    <col min="13" max="13" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="41.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -545,7 +635,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -565,25 +655,25 @@
         <v>2022</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>27</v>
@@ -595,7 +685,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
@@ -615,25 +705,25 @@
         <v>2022</v>
       </c>
       <c r="G3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="N3" s="1" t="s">
         <v>27</v>
@@ -642,10 +732,10 @@
         <v>28</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16">
       <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
@@ -653,96 +743,196 @@
         <v>17</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F4" s="1">
         <v>2022</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="M4" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="N4" s="1" t="s">
         <v>27</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:16">
+      <c r="A5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E5" s="1" t="s">
+      <c r="B5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F5" s="1">
+      <c r="D5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" s="2">
         <v>2022</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="I5" s="1" t="s">
+      <c r="G5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="K5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="L5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="M5" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="M5" s="1" t="s">
+      <c r="N5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" s="5" customFormat="1">
+      <c r="A6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" s="3">
+        <v>2022</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J6" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N5" s="1" t="s">
+      <c r="K6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N6" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="O5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>42</v>
+      <c r="O6" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="P6" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" s="5" customFormat="1">
+      <c r="A7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F7" s="3">
+        <v>2022</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="P7" s="3" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
